--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismail.dalia\Desktop\synergies\nestJs\vp-domaine-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5C2E0A-52B7-4DE0-AFA3-F3184E4734DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24583291-1D9A-4B76-80B8-778DDADC547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{86EC805E-EE26-495E-9B4E-C9C2B1E7137E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="1" hidden="1">data!$A$1:$F$68</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="1" hidden="1">data!$A:$G</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
   <si>
     <t>Clé</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>["choi","prestatair","fournitur","titr","paie","dit","cesu","gard","enfant","0","3","ans","gestion","dispositif","corespondant","depart","nord"]</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>% include</t>
   </si>
 </sst>
 </file>
@@ -768,12 +774,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,13 +813,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{0D7F853C-98BA-42B3-9C89-3FDA8FE1EFC6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="10">
+    <queryTableFields count="7">
       <queryTableField id="1" name="imId" tableColumnId="1"/>
       <queryTableField id="2" name="objet_marche" tableColumnId="2"/>
       <queryTableField id="3" name="pmsProduits" tableColumnId="3"/>
       <queryTableField id="8" dataBound="0" tableColumnId="8"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="7"/>
       <queryTableField id="5" name="tokens" tableColumnId="5"/>
     </queryTableFields>
     <queryTableDeletedFields count="3">
@@ -825,8 +833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{603B7CC1-FCFB-405C-B621-B61C09B4FAF0}" name="Tableau2" displayName="Tableau2" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{603B7CC1-FCFB-405C-B621-B61C09B4FAF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{603B7CC1-FCFB-405C-B621-B61C09B4FAF0}" name="Tableau2" displayName="Tableau2" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{603B7CC1-FCFB-405C-B621-B61C09B4FAF0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2B2B7C94-0304-400D-AD74-7F0A77ED6DA2}" name="Clé"/>
     <tableColumn id="2" xr3:uid="{AE318A0F-F5F5-4D88-AA81-50EA3814021C}" name="Valeur"/>
@@ -836,14 +844,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFB86304-F793-4BCD-B4E0-A186A31A838B}" name="output" displayName="output" ref="A1:F68" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F68" xr:uid="{DFB86304-F793-4BCD-B4E0-A186A31A838B}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFB86304-F793-4BCD-B4E0-A186A31A838B}" name="output" displayName="output" ref="A1:G1048576" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{DFB86304-F793-4BCD-B4E0-A186A31A838B}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E0DEE7B8-0734-4145-84BC-63394A9BA48F}" uniqueName="1" name="imId" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{206AAD6F-19F9-426C-A95A-1500D77B2677}" uniqueName="2" name="objet_marche" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{5EC98163-7216-413C-B490-62AF1A08A420}" uniqueName="3" name="pmsProduits" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{6BF1E949-81BC-4C6D-BC27-B8CA79BDB778}" uniqueName="8" name="domaines" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{641762C2-DE74-4756-AC30-6CD2B86CE52D}" uniqueName="4" name="egal" queryTableFieldId="4"/>
+    <tableColumn id="7" xr3:uid="{0DD26854-4613-4D82-848B-5E0BE784D9D4}" uniqueName="7" name="include" queryTableFieldId="9"/>
     <tableColumn id="5" xr3:uid="{53260DA2-D03F-427E-B755-AF7E7C8FCA9A}" uniqueName="5" name="tokens" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1147,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D135641-7139-4965-A883-92C6CA72AD2C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,6 +1196,12 @@
       </c>
       <c r="B4" s="1"/>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1197,24 +1212,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCC5AF-949E-4BDC-BA0C-E373EE205B6A}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1231,13 +1247,16 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>11263658</v>
       </c>
@@ -1253,14 +1272,17 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>13262812</v>
       </c>
@@ -1276,14 +1298,17 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13645421</v>
       </c>
@@ -1299,14 +1324,17 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14048542</v>
       </c>
@@ -1322,14 +1350,17 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14435137</v>
       </c>
@@ -1345,14 +1376,17 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14480810</v>
       </c>
@@ -1368,14 +1402,17 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14635570</v>
       </c>
@@ -1391,14 +1428,17 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14803303</v>
       </c>
@@ -1414,14 +1454,17 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14845199</v>
       </c>
@@ -1437,14 +1480,17 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14849168</v>
       </c>
@@ -1460,14 +1506,17 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14885889</v>
       </c>
@@ -1483,14 +1532,17 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14983156</v>
       </c>
@@ -1506,14 +1558,17 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15070570</v>
       </c>
@@ -1529,14 +1584,17 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15117080</v>
       </c>
@@ -1552,14 +1610,17 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15177248</v>
       </c>
@@ -1575,14 +1636,17 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15224182</v>
       </c>
@@ -1598,14 +1662,17 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15434807</v>
       </c>
@@ -1621,14 +1688,17 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15472166</v>
       </c>
@@ -1644,14 +1714,17 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15527937</v>
       </c>
@@ -1667,14 +1740,17 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15615506</v>
       </c>
@@ -1690,14 +1766,17 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15662916</v>
       </c>
@@ -1713,14 +1792,17 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15838744</v>
       </c>
@@ -1736,14 +1818,17 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15846169</v>
       </c>
@@ -1759,14 +1844,17 @@
       <c r="E24" t="b">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>76</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15872156</v>
       </c>
@@ -1782,14 +1870,17 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>78</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15893171</v>
       </c>
@@ -1805,14 +1896,17 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>80</v>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15944033</v>
       </c>
@@ -1828,14 +1922,17 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>82</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15959651</v>
       </c>
@@ -1851,14 +1948,17 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>85</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15960424</v>
       </c>
@@ -1874,14 +1974,17 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>87</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15962848</v>
       </c>
@@ -1897,14 +2000,17 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>90</v>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15962992</v>
       </c>
@@ -1920,14 +2026,17 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>92</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15972349</v>
       </c>
@@ -1943,14 +2052,17 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>94</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16003192</v>
       </c>
@@ -1966,14 +2078,17 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>97</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16051381</v>
       </c>
@@ -1989,14 +2104,17 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
         <v>99</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>16090084</v>
       </c>
@@ -2012,14 +2130,17 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>101</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>16136908</v>
       </c>
@@ -2035,14 +2156,17 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
         <v>104</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16259544</v>
       </c>
@@ -2058,14 +2182,17 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>106</v>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16268633</v>
       </c>
@@ -2081,14 +2208,17 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
         <v>108</v>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16274242</v>
       </c>
@@ -2104,14 +2234,17 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>110</v>
       </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16274243</v>
       </c>
@@ -2127,14 +2260,17 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>112</v>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16345914</v>
       </c>
@@ -2150,14 +2286,17 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>114</v>
       </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>16391501</v>
       </c>
@@ -2173,14 +2312,17 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>116</v>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>16555220</v>
       </c>
@@ -2196,14 +2338,17 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>119</v>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16596531</v>
       </c>
@@ -2219,14 +2364,17 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>122</v>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16631961</v>
       </c>
@@ -2242,14 +2390,17 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>124</v>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>16691318</v>
       </c>
@@ -2265,14 +2416,17 @@
       <c r="E46" t="b">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>16692478</v>
       </c>
@@ -2288,14 +2442,17 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
         <v>129</v>
       </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16790624</v>
       </c>
@@ -2311,14 +2468,17 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
         <v>132</v>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16846890</v>
       </c>
@@ -2334,14 +2494,17 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
         <v>135</v>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>16871693</v>
       </c>
@@ -2357,14 +2520,17 @@
       <c r="E50" t="b">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>137</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>16871940</v>
       </c>
@@ -2380,14 +2546,17 @@
       <c r="E51" t="b">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>139</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16884389</v>
       </c>
@@ -2403,14 +2572,17 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
         <v>142</v>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16884746</v>
       </c>
@@ -2426,14 +2598,17 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>145</v>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16888190</v>
       </c>
@@ -2449,14 +2624,17 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
         <v>147</v>
       </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16895928</v>
       </c>
@@ -2472,14 +2650,17 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
         <v>150</v>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16896087</v>
       </c>
@@ -2495,14 +2676,17 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>152</v>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16896186</v>
       </c>
@@ -2518,14 +2702,17 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>154</v>
       </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16898961</v>
       </c>
@@ -2541,14 +2728,17 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
         <v>156</v>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16899229</v>
       </c>
@@ -2564,14 +2754,17 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
         <v>158</v>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16905820</v>
       </c>
@@ -2587,14 +2780,17 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
         <v>160</v>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16925943</v>
       </c>
@@ -2610,14 +2806,17 @@
       <c r="E61" t="b">
         <v>1</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
         <v>163</v>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>16967776</v>
       </c>
@@ -2633,14 +2832,17 @@
       <c r="E62" t="b">
         <v>1</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
         <v>165</v>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16975185</v>
       </c>
@@ -2656,14 +2858,17 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
         <v>167</v>
       </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>16975830</v>
       </c>
@@ -2679,14 +2884,17 @@
       <c r="E64" t="b">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
         <v>170</v>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16978260</v>
       </c>
@@ -2702,14 +2910,17 @@
       <c r="E65" t="b">
         <v>1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
         <v>172</v>
       </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16982811</v>
       </c>
@@ -2725,14 +2936,17 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>175</v>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16986108</v>
       </c>
@@ -2748,14 +2962,17 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>177</v>
       </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>16988791</v>
       </c>
@@ -2771,55 +2988,85 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
         <v>180</v>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G77" t="b">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
         <v>0</v>
       </c>
     </row>
